--- a/4. Data/R models/Error By Country/IXIC/IXIC_DM_test.xlsx
+++ b/4. Data/R models/Error By Country/IXIC/IXIC_DM_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thesis Francisco Bettencourt\Tese Nov\4. Data\R models\Error By Country\IXIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0BE2739-9BA8-4701-A37D-C29775C8F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35D60D4-23C6-43A6-A6F2-0C68F365D778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,6 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,11 +223,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,14 +242,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Cor1" xfId="1" builtinId="30"/>
@@ -584,7 +589,7 @@
   <dimension ref="H1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,104 +600,104 @@
     <row r="1" spans="8:13" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="8:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="8:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="8:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="8:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7">
+      <c r="I7" s="3"/>
+      <c r="J7" s="8">
         <v>5.2931868408694349E-3</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>0.1015335067896128</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="8">
         <v>0.1869683085929876</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="9">
         <v>0.88589030741941233</v>
       </c>
     </row>
     <row r="8" spans="8:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7">
+      <c r="I8" s="3"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="8">
         <v>1.1902506728092481E-2</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="8">
         <v>2.2111761007776981E-2</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>9.6438951199758594E-2</v>
       </c>
     </row>
     <row r="9" spans="8:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7">
+      <c r="I9" s="3"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="8">
         <v>0.49019214233248548</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="9">
         <v>0.40818238846140531</v>
       </c>
     </row>
     <row r="10" spans="8:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
+      <c r="I10" s="3"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="9">
         <v>0.1675733504737269</v>
       </c>
     </row>
     <row r="11" spans="8:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
